--- a/config_12.08/game_module_config_cjj.xlsx
+++ b/config_12.08/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="900">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3759,6 +3759,21 @@
   </si>
   <si>
     <t>等级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12dhhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二兑换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12DHHLManager</t>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4295,13 +4310,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I296"/>
+  <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E287" sqref="E287"/>
+      <selection pane="bottomRight" activeCell="A297" sqref="A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11835,6 +11850,32 @@
       </c>
       <c r="I296" s="24" t="s">
         <v>736</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="19">
+        <v>296</v>
+      </c>
+      <c r="B297" s="25" t="s">
+        <v>896</v>
+      </c>
+      <c r="C297" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="D297" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="I297" s="24" t="s">
+        <v>899</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.08/game_module_config_cjj.xlsx
+++ b/config_12.08/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="903">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3774,6 +3774,18 @@
   </si>
   <si>
     <t>12月14日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHSJBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4310,13 +4322,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I297"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A297" sqref="A297"/>
+      <selection pane="bottomRight" activeCell="H298" sqref="H298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11875,6 +11887,32 @@
         <v>1</v>
       </c>
       <c r="I297" s="24" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="31">
+        <v>297</v>
+      </c>
+      <c r="B298" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="C298" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="D298" s="25" t="s">
+        <v>902</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="I298" s="24" t="s">
         <v>899</v>
       </c>
     </row>

--- a/config_12.08/game_module_config_cjj.xlsx
+++ b/config_12.08/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="906">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3509,10 +3509,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>畅玩礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_030_CWLBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3786,6 +3782,22 @@
   </si>
   <si>
     <t>Act_038_S12LHSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二页签</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月14日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3870,7 +3882,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3907,6 +3919,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3939,7 +3957,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4043,6 +4061,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4322,13 +4355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H298" sqref="H298"/>
+      <selection pane="bottomRight" activeCell="C304" sqref="C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10178,7 +10211,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -11306,7 +11339,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C275" s="18" t="s">
         <v>819</v>
@@ -11376,30 +11409,30 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="19">
+    <row r="278" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="35">
         <v>277</v>
       </c>
-      <c r="B278" s="18" t="s">
+      <c r="B278" s="36" t="s">
         <v>830</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="36" t="s">
+        <v>902</v>
+      </c>
+      <c r="D278" s="37" t="s">
         <v>831</v>
       </c>
-      <c r="D278" s="23" t="s">
+      <c r="E278" s="38">
+        <v>1</v>
+      </c>
+      <c r="F278" s="38">
+        <v>1</v>
+      </c>
+      <c r="G278" s="38">
+        <v>1</v>
+      </c>
+      <c r="I278" s="39" t="s">
         <v>832</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="24" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11407,13 +11440,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11425,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11433,22 +11466,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="C280" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="24" t="s">
         <v>836</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11456,13 +11489,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11474,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11482,13 +11515,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11500,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11508,25 +11541,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="C283" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="D283" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="24" t="s">
         <v>846</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>853</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11534,25 +11567,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="C284" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="D284" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="D284" s="23" t="s">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="24" t="s">
         <v>850</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11560,13 +11593,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="C285" s="28" t="s">
         <v>859</v>
       </c>
-      <c r="C285" s="28" t="s">
+      <c r="D285" s="27" t="s">
         <v>860</v>
-      </c>
-      <c r="D285" s="27" t="s">
-        <v>861</v>
       </c>
       <c r="E285" s="29">
         <v>1</v>
@@ -11586,25 +11619,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="D286" s="23" t="s">
         <v>856</v>
       </c>
-      <c r="C286" s="18" t="s">
-        <v>855</v>
-      </c>
-      <c r="D286" s="23" t="s">
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="I286" s="24" t="s">
         <v>857</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11612,13 +11645,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="C287" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="D287" s="23" t="s">
         <v>863</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>864</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11638,13 +11671,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="D288" s="23" t="s">
         <v>865</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>867</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>866</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -11664,13 +11697,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="32" t="s">
+        <v>867</v>
+      </c>
+      <c r="C289" s="32" t="s">
         <v>868</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="D289" s="32" t="s">
         <v>869</v>
-      </c>
-      <c r="D289" s="32" t="s">
-        <v>870</v>
       </c>
       <c r="E289" s="33">
         <v>0</v>
@@ -11690,22 +11723,22 @@
         <v>289</v>
       </c>
       <c r="B290" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="C290" s="32" t="s">
         <v>871</v>
       </c>
-      <c r="C290" s="32" t="s">
+      <c r="E290" s="33">
+        <v>0</v>
+      </c>
+      <c r="F290" s="33">
+        <v>0</v>
+      </c>
+      <c r="G290" s="33">
+        <v>0</v>
+      </c>
+      <c r="I290" s="34" t="s">
         <v>872</v>
-      </c>
-      <c r="E290" s="33">
-        <v>0</v>
-      </c>
-      <c r="F290" s="33">
-        <v>0</v>
-      </c>
-      <c r="G290" s="33">
-        <v>0</v>
-      </c>
-      <c r="I290" s="34" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11713,25 +11746,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="C291" s="18" t="s">
         <v>874</v>
       </c>
-      <c r="C291" s="18" t="s">
+      <c r="D291" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="D291" s="23" t="s">
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="I291" s="24" t="s">
         <v>876</v>
-      </c>
-      <c r="E291">
-        <v>0</v>
-      </c>
-      <c r="F291">
-        <v>0</v>
-      </c>
-      <c r="G291">
-        <v>0</v>
-      </c>
-      <c r="I291" s="24" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11739,25 +11772,25 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
+        <v>877</v>
+      </c>
+      <c r="C292" t="s">
         <v>878</v>
       </c>
-      <c r="C292" t="s">
+      <c r="D292" t="s">
         <v>879</v>
       </c>
-      <c r="D292" t="s">
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
         <v>880</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11765,14 +11798,14 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
+        <v>881</v>
+      </c>
+      <c r="C293" t="s">
         <v>882</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>883</v>
       </c>
-      <c r="D293" t="s">
-        <v>884</v>
-      </c>
       <c r="E293">
         <v>1</v>
       </c>
@@ -11783,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="I293" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11791,13 +11824,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="C294" s="18" t="s">
         <v>886</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="D294" s="25" t="s">
         <v>887</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>888</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11817,13 +11850,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="C295" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="C295" s="18" t="s">
+      <c r="D295" s="25" t="s">
         <v>890</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>891</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11843,13 +11876,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="D296" s="25" t="s">
         <v>892</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>893</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -11869,25 +11902,25 @@
         <v>296</v>
       </c>
       <c r="B297" s="25" t="s">
+        <v>895</v>
+      </c>
+      <c r="C297" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="C297" s="18" t="s">
+      <c r="D297" s="25" t="s">
         <v>897</v>
       </c>
-      <c r="D297" s="25" t="s">
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="I297" s="24" t="s">
         <v>898</v>
-      </c>
-      <c r="E297">
-        <v>1</v>
-      </c>
-      <c r="F297">
-        <v>1</v>
-      </c>
-      <c r="G297">
-        <v>1</v>
-      </c>
-      <c r="I297" s="24" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11895,14 +11928,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="25" t="s">
+        <v>899</v>
+      </c>
+      <c r="C298" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="C298" s="18" t="s">
+      <c r="D298" s="25" t="s">
         <v>901</v>
       </c>
-      <c r="D298" s="25" t="s">
-        <v>902</v>
-      </c>
       <c r="E298">
         <v>1</v>
       </c>
@@ -11913,7 +11946,30 @@
         <v>1</v>
       </c>
       <c r="I298" s="24" t="s">
-        <v>899</v>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="31">
+        <v>298</v>
+      </c>
+      <c r="B299" s="25" t="s">
+        <v>903</v>
+      </c>
+      <c r="C299" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="I299" s="24" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.08/game_module_config_cjj.xlsx
+++ b/config_12.08/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="909">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3799,6 +3799,17 @@
   <si>
     <t>12月14日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lh_drop_ani</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双12礼盒掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_S12LHDROPManager</t>
   </si>
 </sst>
 </file>
@@ -3882,7 +3893,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3925,6 +3936,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3957,7 +3974,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4076,6 +4093,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4355,13 +4387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C304" sqref="C304"/>
+      <selection pane="bottomRight" activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11897,79 +11929,105 @@
         <v>736</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="19">
+    <row r="297" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="40">
         <v>296</v>
       </c>
-      <c r="B297" s="25" t="s">
+      <c r="B297" s="41" t="s">
         <v>895</v>
       </c>
-      <c r="C297" s="18" t="s">
+      <c r="C297" s="42" t="s">
         <v>896</v>
       </c>
-      <c r="D297" s="25" t="s">
+      <c r="D297" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="E297">
-        <v>1</v>
-      </c>
-      <c r="F297">
-        <v>1</v>
-      </c>
-      <c r="G297">
-        <v>1</v>
-      </c>
-      <c r="I297" s="24" t="s">
+      <c r="E297" s="43">
+        <v>1</v>
+      </c>
+      <c r="F297" s="43">
+        <v>1</v>
+      </c>
+      <c r="G297" s="43">
+        <v>1</v>
+      </c>
+      <c r="I297" s="44" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="31">
+    <row r="298" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="40">
         <v>297</v>
       </c>
-      <c r="B298" s="25" t="s">
+      <c r="B298" s="41" t="s">
         <v>899</v>
       </c>
-      <c r="C298" s="18" t="s">
+      <c r="C298" s="42" t="s">
         <v>900</v>
       </c>
-      <c r="D298" s="25" t="s">
+      <c r="D298" s="41" t="s">
         <v>901</v>
       </c>
-      <c r="E298">
-        <v>1</v>
-      </c>
-      <c r="F298">
-        <v>1</v>
-      </c>
-      <c r="G298">
-        <v>1</v>
-      </c>
-      <c r="I298" s="24" t="s">
+      <c r="E298" s="43">
+        <v>1</v>
+      </c>
+      <c r="F298" s="43">
+        <v>1</v>
+      </c>
+      <c r="G298" s="43">
+        <v>1</v>
+      </c>
+      <c r="I298" s="44" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="31">
+    <row r="299" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="40">
         <v>298</v>
       </c>
-      <c r="B299" s="25" t="s">
+      <c r="B299" s="41" t="s">
         <v>903</v>
       </c>
-      <c r="C299" s="18" t="s">
+      <c r="C299" s="42" t="s">
         <v>904</v>
       </c>
-      <c r="E299">
-        <v>1</v>
-      </c>
-      <c r="F299">
-        <v>1</v>
-      </c>
-      <c r="G299">
-        <v>1</v>
-      </c>
-      <c r="I299" s="24" t="s">
+      <c r="E299" s="43">
+        <v>1</v>
+      </c>
+      <c r="F299" s="43">
+        <v>1</v>
+      </c>
+      <c r="G299" s="43">
+        <v>1</v>
+      </c>
+      <c r="I299" s="44" t="s">
         <v>905</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="40">
+        <v>299</v>
+      </c>
+      <c r="B300" s="41" t="s">
+        <v>906</v>
+      </c>
+      <c r="C300" s="42" t="s">
+        <v>907</v>
+      </c>
+      <c r="D300" s="41" t="s">
+        <v>908</v>
+      </c>
+      <c r="E300" s="43">
+        <v>1</v>
+      </c>
+      <c r="F300" s="43">
+        <v>1</v>
+      </c>
+      <c r="G300" s="43">
+        <v>1</v>
+      </c>
+      <c r="I300" s="44" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.08/game_module_config_cjj.xlsx
+++ b/config_12.08/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4402,10 +4402,10 @@
   <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C288" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A301" sqref="A301"/>
+      <selection pane="bottomRight" activeCell="G276" sqref="G276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11418,13 +11418,13 @@
         <v>825</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" s="24" t="s">
         <v>826</v>

--- a/config_12.08/game_module_config_cjj.xlsx
+++ b/config_12.08/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="912">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3810,6 +3810,18 @@
   </si>
   <si>
     <t>Act_038_S12LHDROPManager</t>
+  </si>
+  <si>
+    <t>act_038_by_and_cjj_conduct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_038_BY_AND_CJJ_CONDUCTManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4387,13 +4399,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C288" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D301" sqref="D301"/>
+      <selection pane="bottomRight" activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12028,6 +12040,29 @@
       </c>
       <c r="I300" s="44" t="s">
         <v>898</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="40">
+        <v>300</v>
+      </c>
+      <c r="B301" s="41" t="s">
+        <v>909</v>
+      </c>
+      <c r="D301" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="E301" s="43">
+        <v>1</v>
+      </c>
+      <c r="F301" s="43">
+        <v>1</v>
+      </c>
+      <c r="G301" s="43">
+        <v>1</v>
+      </c>
+      <c r="I301" s="44" t="s">
+        <v>911</v>
       </c>
     </row>
   </sheetData>
